--- a/data/trans_dic/P6905-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6905-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,54%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>19,91; 37,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>8,44; 29,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>11,54; 34,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0,53; 31,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>10,73; 38,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>15,81; 44,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>22,23; 66,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>22,91; 79,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>19,71; 34,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>13,82; 31,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>17,37; 38,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>12,8; 57,78</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>24,13; 35,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>22,48; 34,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>19,72; 32,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>15,3; 26,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>38,57; 56,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>34,05; 51,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>35,57; 52,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>24,33; 36,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>30,53; 40,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>28,68; 39,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>27,6; 37,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>21,11; 29,58</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,37%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>24,29; 46,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>13,35; 39,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>21,94; 45,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>23,8; 52,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>27,05; 52,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>31,72; 61,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>24,73; 47,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>32,84; 50,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>29,46; 45,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>25,88; 45,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>27,21; 44,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>32,02; 47,39</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,68%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>25,66; 34,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>21,34; 31,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>22,19; 31,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>17,34; 27,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>34,12; 48,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>33,92; 47,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,96; 48,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>29,59; 39,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,8; 37,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>27,91; 36,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,28; 36,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>24,98; 32,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6905-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>25,79%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 31,33</t>
+          <t>0,59; 40,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,91; 79,48</t>
+          <t>23,21; 75,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 57,78</t>
+          <t>13,01; 53,21</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>24,04%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,3; 26,43</t>
+          <t>15,33; 26,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,33; 36,07</t>
+          <t>17,29; 34,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 29,58</t>
+          <t>18,33; 28,46</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,8; 52,9</t>
+          <t>23,89; 52,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,84; 50,81</t>
+          <t>33,04; 51,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,02; 47,39</t>
+          <t>32,17; 47,62</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>27,72%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 27,34</t>
+          <t>17,7; 27,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,59; 39,91</t>
+          <t>23,55; 37,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,98; 32,47</t>
+          <t>22,63; 31,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6905-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,91; 37,98</t>
+          <t>19,54; 37,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 29,45</t>
+          <t>8,53; 28,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 34,93</t>
+          <t>11,21; 33,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 40,65</t>
+          <t>0,59; 35,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 38,99</t>
+          <t>10,78; 38,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 44,06</t>
+          <t>16,46; 46,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,23; 66,81</t>
+          <t>22,17; 67,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,21; 75,95</t>
+          <t>22,47; 75,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,71; 34,4</t>
+          <t>19,19; 34,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 31,04</t>
+          <t>14,16; 31,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,37; 38,26</t>
+          <t>16,68; 38,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 53,21</t>
+          <t>12,03; 46,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,13; 35,66</t>
+          <t>24,28; 35,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 34,62</t>
+          <t>22,58; 35,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 32,49</t>
+          <t>21,07; 32,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,33; 26,8</t>
+          <t>15,52; 26,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 56,83</t>
+          <t>38,9; 57,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,05; 51,77</t>
+          <t>33,36; 51,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,57; 52,45</t>
+          <t>35,92; 53,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 34,01</t>
+          <t>16,54; 34,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,53; 40,0</t>
+          <t>29,92; 39,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,68; 39,25</t>
+          <t>28,58; 39,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,6; 37,3</t>
+          <t>27,77; 37,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 28,46</t>
+          <t>18,69; 28,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,29; 46,91</t>
+          <t>26,01; 48,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 39,66</t>
+          <t>13,27; 37,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,94; 45,98</t>
+          <t>22,58; 47,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,89; 52,91</t>
+          <t>23,77; 51,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,05; 52,34</t>
+          <t>27,88; 52,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,72; 61,19</t>
+          <t>30,27; 61,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,73; 47,75</t>
+          <t>25,65; 48,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,04; 51,25</t>
+          <t>33,18; 51,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,46; 45,64</t>
+          <t>29,42; 45,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,88; 45,34</t>
+          <t>24,98; 47,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,21; 44,86</t>
+          <t>26,7; 44,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,17; 47,62</t>
+          <t>31,9; 47,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 34,46</t>
+          <t>25,47; 34,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,34; 31,18</t>
+          <t>21,18; 31,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,19; 31,85</t>
+          <t>22,26; 32,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 27,9</t>
+          <t>18,38; 28,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,12; 48,05</t>
+          <t>35,05; 47,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,92; 47,98</t>
+          <t>34,47; 48,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,96; 48,84</t>
+          <t>34,99; 48,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,55; 37,95</t>
+          <t>23,97; 38,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,8; 37,02</t>
+          <t>30,19; 37,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 36,51</t>
+          <t>28,29; 36,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,28; 36,44</t>
+          <t>28,27; 36,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,63; 31,55</t>
+          <t>23,01; 31,82</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores de cabeza</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30671</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11666</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2778</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8297</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11080</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7998</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11198</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38969</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20636</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19664</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13976</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21743; 41407</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4832; 16021</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6230; 18493</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>173; 10227</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4049; 14285</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6244; 17644</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3995; 12166</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5615; 18984</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28563; 51172</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13396; 29826</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12278; 28416</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6521; 25455</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84607</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>63538</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>60149</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>49738</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56972</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>55478</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54688</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65161</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>141579</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>119016</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>114837</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>114899</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>69675; 101804</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50035; 78874</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48323; 74713</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37185; 64062</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46125; 68487</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43564; 67248</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44744; 66699</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39422; 81306</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>121332; 160564</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>100654; 139113</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>98309; 134089</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>89324; 135057</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26614</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11451</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21739</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25033</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24899</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21491</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26887</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38050</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51513</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32942</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48626</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>63083</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19264; 35563</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6117; 17408</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14346; 30383</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16529; 35791</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17836; 33619</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14020; 28508</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18909; 35942</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30094; 46667</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40619; 63228</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23083; 43749</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36648; 60466</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51107; 76302</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>141892</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>84545</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>93553</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>77548</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>90168</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>88049</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89574</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>114409</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>232061</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>172594</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>183127</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>191958</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>120280; 163652</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>68702; 100816</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>77573; 113483</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>62190; 97009</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>77154; 104241</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>74043; 103828</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>75682; 104613</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>84856; 135961</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>209046; 259159</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>152526; 195686</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>159653; 207816</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>159303; 220290</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>